--- a/Student data Practice.xlsx
+++ b/Student data Practice.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88d85f65110bd09b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F694B27C-C774-465F-B9AA-FF2B56635756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{F694B27C-C774-465F-B9AA-FF2B56635756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6521ED04-2500-45E9-8A6D-F181ABCAC4E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Student data Practice" sheetId="2" r:id="rId1"/>
-    <sheet name="student-por" sheetId="1" r:id="rId2"/>
+    <sheet name="Pivot" sheetId="2" r:id="rId1"/>
+    <sheet name="Report" sheetId="3" r:id="rId2"/>
+    <sheet name="student-por" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -218,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,13 +697,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -778,7 +778,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Student data Practice.xlsx]Student data Practice!PivotTable3</c:name>
+    <c:name>[Student data Practice.xlsx]Pivot!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1198,7 +1198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$B$3</c:f>
+              <c:f>Pivot!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +1219,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1249,7 +1249,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$B$4:$B$10</c:f>
+              <c:f>Pivot!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1279,7 +1279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$C$3</c:f>
+              <c:f>Pivot!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1330,7 +1330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$C$4:$C$10</c:f>
+              <c:f>Pivot!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1360,7 +1360,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$D$3</c:f>
+              <c:f>Pivot!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1381,7 +1381,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1411,7 +1411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$D$4:$D$10</c:f>
+              <c:f>Pivot!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1441,7 +1441,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$E$3</c:f>
+              <c:f>Pivot!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1462,7 +1462,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1492,7 +1492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$E$4:$E$10</c:f>
+              <c:f>Pivot!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1522,7 +1522,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$F$3</c:f>
+              <c:f>Pivot!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1543,7 +1543,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1573,7 +1573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$F$4:$F$10</c:f>
+              <c:f>Pivot!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1603,7 +1603,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$G$3</c:f>
+              <c:f>Pivot!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1624,7 +1624,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1654,7 +1654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$G$4:$G$10</c:f>
+              <c:f>Pivot!$G$4:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1684,7 +1684,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Student data Practice'!$H$3</c:f>
+              <c:f>Pivot!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1707,7 +1707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Student data Practice'!$A$4:$A$10</c:f>
+              <c:f>Pivot!$A$4:$A$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1737,7 +1737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Student data Practice'!$H$4:$H$10</c:f>
+              <c:f>Pivot!$H$4:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2565,8 +2565,1116 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF87E37B-EABB-A2B0-1903-91F46C063A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="266700"/>
+          <a:ext cx="6225540" cy="11209020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Student Data Report</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Introduction:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> This report provides an analysis of student attributes based on the provided dataset. The dataset includes aggregated information on various attributes such as age, travel time, study time, failures, free time, health, and absences.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Summary:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The dataset comprises a total of 10,867 students.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The gender distribution is as follows:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Female: 6,430 students</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Male: 4,437 students</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Attribute Analysis:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Age:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Age Sum: 10,867</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Travel Time:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Travel Time Sum: 1,018</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Study Time:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Study Time Sum: 1,253</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Failures:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Failures Sum: 144</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Free Time:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Free Time Sum: 2,064</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Health:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Health Sum: 2,295</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Absences:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Absences Sum: 2,375</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gender Analysis:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Female Students:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Students: 6,430</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Age Sum: 6,430</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Travel Time Sum: 591</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Study Time Sum: 794</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Failures Sum: 71</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Free Time Sum: 1,169</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Health Sum: 1,290</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Absences Sum: 1,370</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Male Students:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Students: 4,437</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Age Sum: 4,437</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Travel Time Sum: 427</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Study Time Sum: 459</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Failures Sum: 73</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Free Time Sum: 895</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Health Sum: 1,005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Absences Sum: 1,005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Failure Analysis:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No Failures:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Students: 3,650</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Age Sum: 3,650</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Travel Time Sum: 337</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Study Time Sum: 437</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Free Time Sum: 640</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Health Sum: 729</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Absences Sum: 817</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Failures:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Students: 2,780</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Age Sum: 2,780</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Travel Time Sum: 254</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Study Time Sum: 357</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Free Time Sum: 529</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Health Sum: 561</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Total Absences Sum: 553</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Conclusion:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> This report provides a comprehensive overview of student attributes based on the provided dataset. It highlights the gender distribution, total number of students, and the sum of various attributes such as age, travel time, study time, failures, free time, health, and absences. Further analysis can be conducted based on specific criteria or additional data.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-IN"/>
+          </a:br>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Surya Kiran" refreshedDate="45395.468162962963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="649">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Surya Kiran" refreshedDate="45395.468162962963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="649" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AG650" sheet="student-por"/>
   </cacheSource>
@@ -25406,7 +26514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField showAll="0"/>
@@ -25890,11 +26998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25939,77 +27047,77 @@
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>6430</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>591</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>794</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>71</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1169</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>1290</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
         <v>3650</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>337</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>437</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>41</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>640</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>729</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
         <v>2780</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>254</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>357</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>529</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>561</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>553</v>
       </c>
     </row>
@@ -26017,77 +27125,77 @@
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>4437</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>427</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>459</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>73</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>895</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>1005</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>1005</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
         <v>1964</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>195</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>189</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>33</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>371</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>446</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
         <v>2473</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>232</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>270</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>524</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>559</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>577</v>
       </c>
     </row>
@@ -26095,25 +27203,25 @@
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>10867</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1018</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1253</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>144</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>2064</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>2295</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>2375</v>
       </c>
     </row>
@@ -26124,7 +27232,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE2EF1-E812-49CB-AF06-54AB5B759B0E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG650"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
